--- a/06-03-2023/data/output/xlsx/Causality for Category/2.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/2.xlsx
@@ -49,15 +49,12 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -109,45 +106,45 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
@@ -217,15 +214,15 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -253,69 +250,69 @@
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
@@ -325,7 +322,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -334,18 +331,18 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__0,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2</t>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
+    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
@@ -370,7 +367,7 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/2.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="144">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,6 +58,9 @@
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
@@ -76,21 +79,39 @@
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
@@ -112,39 +133,33 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
@@ -220,7 +235,7 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
@@ -247,15 +262,15 @@
     <t>num_of_equals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_mults_and_divs__6,num_of_unknowns__2,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
@@ -271,28 +286,19 @@
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_unknowns__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
@@ -304,15 +310,9 @@
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__10,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
@@ -331,18 +331,15 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__1,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_unknowns__3</t>
-  </si>
-  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__9,num_of_mults_and_divs__6,num_of_unknowns__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
@@ -568,10 +568,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$13</c:f>
+              <c:f>AddsSubs!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -595,39 +595,69 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$13</c:f>
+              <c:f>AddsSubs!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.08580183861082738</c:v>
+                  <c:v>0.02042900919305414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08232445520581114</c:v>
+                  <c:v>0.02300242130750605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06472491909385113</c:v>
+                  <c:v>0.01294498381877023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06565656565656566</c:v>
+                  <c:v>0.01515151515151515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04761904761904762</c:v>
+                  <c:v>0.01904761904761905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02531645569620253</c:v>
+                  <c:v>0.01265822784810127</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.01923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +714,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 2</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -748,10 +778,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$15</c:f>
+              <c:f>MultsDivs!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -769,57 +799,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$15</c:f>
+              <c:f>MultsDivs!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.0855614973262032</c:v>
+                  <c:v>0.0053475935828877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09154929577464789</c:v>
+                  <c:v>0.007042253521126761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09677419354838709</c:v>
+                  <c:v>0.01075268817204301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0821917808219178</c:v>
+                  <c:v>0.0136986301369863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.01851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1081081081081081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.04545454545454546</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05882352941176471</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09090909090909091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.125</c:v>
+                  <c:v>0.02702702702702703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +882,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 2</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -940,10 +946,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$16</c:f>
+              <c:f>Equations!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -970,54 +976,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$16</c:f>
+              <c:f>Equations!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.08826479438314945</c:v>
+                  <c:v>0.02106318956870612</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08779011099899092</c:v>
+                  <c:v>0.02018163471241171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08719851576994433</c:v>
+                  <c:v>0.007421150278293136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08430232558139535</c:v>
+                  <c:v>0.008720930232558139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07352941176470588</c:v>
+                  <c:v>0.004901960784313725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08088235294117647</c:v>
+                  <c:v>0.007352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05434782608695652</c:v>
+                  <c:v>0.0108695652173913</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03703703703703703</c:v>
+                  <c:v>0.01851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05882352941176471</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.02857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1068,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 2</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1138,10 +1132,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$16</c:f>
+              <c:f>Decimals!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1162,60 +1156,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$16</c:f>
+              <c:f>Decimals!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.1302250803858521</c:v>
+                  <c:v>0.02411575562700964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1565040650406504</c:v>
+                  <c:v>0.02845528455284553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1698630136986301</c:v>
+                  <c:v>0.0273972602739726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1660079051383399</c:v>
+                  <c:v>0.03162055335968379</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125748502994012</c:v>
+                  <c:v>0.01796407185628742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.007936507936507936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08235294117647059</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.06153846153846154</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.07317073170731707</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.06451612903225806</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.01176470588235294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1242,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 2</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1336,10 +1306,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$10</c:f>
+              <c:f>Unknowns!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1348,36 +1318,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$10</c:f>
+              <c:f>Unknowns!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.08817635270541083</c:v>
+                  <c:v>0.02104208416833667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08345534407027819</c:v>
+                  <c:v>0.02635431918008785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09615384615384616</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.08695652173913043</c:v>
+                  <c:v>0.01052631578947368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,7 +1392,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 2</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1498,10 +1456,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$10</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1513,33 +1471,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$10</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.08291457286432161</c:v>
+                  <c:v>0.01005025125628141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05732484076433121</c:v>
+                  <c:v>0.006369426751592357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05333333333333334</c:v>
+                  <c:v>0.01333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06976744186046512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.02325581395348837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,7 +1548,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 2</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2162,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.08580183861082738</v>
+        <v>0.02042900919305414</v>
       </c>
       <c r="E3" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -2183,19 +2135,21 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08232445520581114</v>
+        <v>0.02300242130750605</v>
       </c>
       <c r="E4" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.03230581343988893</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>309</v>
@@ -2204,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06472491909385113</v>
+        <v>0.01294498381877023</v>
       </c>
       <c r="E5" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -2216,7 +2170,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>198</v>
@@ -2225,10 +2179,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.06565656565656566</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E6" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -2237,7 +2191,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -2246,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04761904761904762</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E7" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -2258,7 +2212,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -2267,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02531645569620253</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="E8" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -2279,7 +2233,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2291,7 +2245,7 @@
         <v>0.01923076923076923</v>
       </c>
       <c r="E9" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -2300,7 +2254,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2312,16 +2266,18 @@
         <v>0.025</v>
       </c>
       <c r="E10" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0316563362944779</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2330,19 +2286,21 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E11" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.04696005852074935</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2351,19 +2309,21 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E12" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.05123268294903046</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2372,19 +2332,21 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.08227413452575755</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2393,19 +2355,21 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.09441601298031953</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2414,19 +2378,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E15" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1036833951640093</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2438,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -2447,7 +2413,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2459,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
@@ -2468,7 +2434,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2480,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -2489,7 +2455,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2501,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
@@ -2510,7 +2476,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2522,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
@@ -2531,7 +2497,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2543,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
@@ -2552,7 +2518,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2561,21 +2527,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1302250803858521</v>
+        <v>0.02411575562700964</v>
       </c>
       <c r="E22" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1">
-        <v>0.1231463645221103</v>
+        <v>0.04944225150830398</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2584,21 +2550,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1565040650406504</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="E23" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1">
-        <v>0.1191694231692089</v>
+        <v>0.0680689064960432</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2607,21 +2573,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.1698630136986301</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E24" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1">
-        <v>0.113939629957775</v>
+        <v>-0.05151021309744799</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2630,21 +2596,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.1660079051383399</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="E25" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1">
-        <v>0.09622313914907932</v>
+        <v>-0.04896124694896322</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2653,21 +2619,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.125748502994012</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E26" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.05183091153888257</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2676,21 +2640,19 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E27" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.03018818216052009</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2699,10 +2661,10 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.08235294117647059</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E28" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
@@ -2711,7 +2673,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2720,10 +2682,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.06153846153846154</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
@@ -2732,7 +2694,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2741,10 +2703,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.07317073170731707</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
@@ -2753,7 +2715,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2762,10 +2724,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.06451612903225806</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
@@ -2774,7 +2736,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2783,10 +2745,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -2795,7 +2757,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2807,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -2816,7 +2778,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2828,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -2837,7 +2799,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2849,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2858,7 +2820,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2870,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -2879,7 +2841,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2891,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -2900,7 +2862,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2912,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -2921,7 +2883,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2933,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -2942,7 +2904,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2954,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
@@ -2963,7 +2925,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2975,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
@@ -2984,7 +2946,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2996,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -3005,7 +2967,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3017,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -3026,7 +2988,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3038,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -3047,7 +3009,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3059,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -3068,7 +3030,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3080,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -3089,7 +3051,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3101,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -3110,7 +3072,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3122,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3131,7 +3093,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3143,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -3152,7 +3114,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3164,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -3173,7 +3135,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3185,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3194,7 +3156,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3203,21 +3165,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.08826479438314945</v>
+        <v>0.02106318956870612</v>
       </c>
       <c r="E52" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G52" s="1">
-        <v>0.1191716654578769</v>
+        <v>0.04681715011581605</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3226,10 +3188,10 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.08779011099899092</v>
+        <v>0.02018163471241171</v>
       </c>
       <c r="E53" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
@@ -3238,7 +3200,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3247,10 +3209,10 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.08719851576994433</v>
+        <v>0.007421150278293136</v>
       </c>
       <c r="E54" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
@@ -3259,7 +3221,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3268,10 +3230,10 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.08430232558139535</v>
+        <v>0.008720930232558139</v>
       </c>
       <c r="E55" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
@@ -3280,7 +3242,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3289,10 +3251,10 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.07352941176470588</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E56" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
@@ -3301,7 +3263,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3310,10 +3272,10 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.08088235294117647</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="E57" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -3322,7 +3284,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3331,10 +3293,10 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.05434782608695652</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E58" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
@@ -3343,7 +3305,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3352,10 +3314,10 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.03703703703703703</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E59" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -3364,7 +3326,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3373,19 +3335,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.05714285714285714</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E60" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.04385544494857642</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3394,10 +3358,10 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -3406,7 +3370,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3415,21 +3379,19 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.1239901508127622</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3441,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
@@ -3450,7 +3412,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3462,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -3471,7 +3433,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3483,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
@@ -3492,7 +3454,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3501,10 +3463,10 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0855614973262032</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E66" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
@@ -3513,7 +3475,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3522,21 +3484,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.09154929577464789</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E67" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.04640530425603784</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3545,21 +3505,19 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.09677419354838709</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E68" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.04436783661442181</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3568,10 +3526,10 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0821917808219178</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E69" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
@@ -3580,7 +3538,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3589,21 +3547,19 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E70" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.06248520676195785</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3612,21 +3568,21 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.1081081081081081</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E71" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G71" s="1">
-        <v>0.0582457963731434</v>
+        <v>-0.04244303901862597</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3635,10 +3591,10 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
@@ -3647,7 +3603,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3656,10 +3612,10 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
@@ -3668,7 +3624,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3677,21 +3633,19 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" s="1">
-        <v>-0.0319187882037331</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3700,16 +3654,14 @@
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" s="1">
-        <v>-0.001959237890656919</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3726,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -3747,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -3768,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -3789,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -3807,10 +3759,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="E80" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -3828,19 +3780,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.08345534407027819</v>
+        <v>0.02635431918008785</v>
       </c>
       <c r="E81" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.04025768196326799</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3849,16 +3803,14 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.09473684210526316</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E82" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" s="1">
-        <v>-0.01177497153469672</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3872,21 +3824,19 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.09615384615384616</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.002489472305653404</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3895,10 +3845,10 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
@@ -3907,7 +3857,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3919,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
@@ -3928,7 +3878,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3940,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
@@ -3949,7 +3899,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3961,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
@@ -3970,7 +3920,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3982,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -3991,7 +3941,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4003,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -4012,7 +3962,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4024,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -4033,7 +3983,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4045,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
@@ -4054,7 +4004,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4066,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -4075,7 +4025,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4084,10 +4034,10 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.08291457286432161</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E93" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
@@ -4096,7 +4046,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4105,10 +4055,10 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.05732484076433121</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="E94" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
@@ -4117,7 +4067,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4126,10 +4076,10 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.05333333333333334</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E95" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
@@ -4138,7 +4088,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4147,14 +4097,16 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.06976744186046512</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E96" s="1">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.06433206510910593</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4168,10 +4120,10 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
@@ -4192,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
@@ -4213,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
@@ -4234,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -4255,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -4276,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -4297,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -4318,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -4339,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -4360,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -4381,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -4395,7 +4347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4461,13 +4413,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08580183861082738</v>
+        <v>0.02042900919305414</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002374514094583446</v>
+        <v>-0.0006130749752825369</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4504,13 +4456,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08232445520581114</v>
+        <v>0.02300242130750605</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.00585189749959969</v>
+        <v>0.00196033713916938</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4538,7 +4490,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>309</v>
@@ -4547,13 +4499,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.06472491909385113</v>
+        <v>0.01294498381877023</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0234514336115597</v>
+        <v>-0.008097100349566446</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4581,7 +4533,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>198</v>
@@ -4590,13 +4542,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06565656565656566</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.02251978704884516</v>
+        <v>-0.005890569016821522</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4624,7 +4576,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>105</v>
@@ -4633,13 +4585,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04761904761904762</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.04055730508636321</v>
+        <v>-0.001994465120717624</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4667,7 +4619,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>79</v>
@@ -4676,13 +4628,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02531645569620253</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.0628598970092083</v>
+        <v>-0.008383856320235408</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4710,7 +4662,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
@@ -4722,10 +4674,10 @@
         <v>0.01923076923076923</v>
       </c>
       <c r="E10" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.06894558347464159</v>
+        <v>-0.001811314937567442</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4753,7 +4705,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>40</v>
@@ -4765,10 +4717,10 @@
         <v>0.025</v>
       </c>
       <c r="E11" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.06317635270541083</v>
+        <v>0.003957915831663328</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4791,6 +4743,221 @@
       </c>
       <c r="L11" s="1">
         <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.02441246128620878</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.03451347138721888</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.07895791583166334</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.09006902694277444</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.02104208416833667</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1039579158316633</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -4802,7 +4969,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4859,7 +5026,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4868,13 +5035,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0855614973262032</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002614855379207623</v>
+        <v>-0.01569449058544897</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4902,7 +5069,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4911,13 +5078,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09154929577464789</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F5" s="1">
-        <v>0.003372943069237064</v>
+        <v>-0.01399983064720991</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4945,7 +5112,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -4954,13 +5121,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.09677419354838709</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F6" s="1">
-        <v>0.008597840842976268</v>
+        <v>-0.01028939599629366</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4988,7 +5155,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -4997,13 +5164,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0821917808219178</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.005984571883493023</v>
+        <v>-0.007343454031350373</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5031,7 +5198,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5040,13 +5207,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F8" s="1">
-        <v>0.02293475840570028</v>
+        <v>-0.002523565649818156</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5074,7 +5241,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5083,13 +5250,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1081081081081081</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01993175540269729</v>
+        <v>0.005984942858690355</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5112,178 +5279,6 @@
       </c>
       <c r="L9" s="1">
         <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="3">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.04272180725086537</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="3">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.02935282329364612</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.002732738203680085</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.03682364729458917</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -5295,7 +5290,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5352,7 +5347,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5361,13 +5356,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08826479438314945</v>
+        <v>0.02106318956870612</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F4" s="1">
-        <v>8.844167773862377E-05</v>
+        <v>2.110540036944636E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5395,7 +5390,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5404,13 +5399,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08779011099899092</v>
+        <v>0.02018163471241171</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.0003862417064199042</v>
+        <v>-0.0008604494559249672</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5438,7 +5433,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5447,13 +5442,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.08719851576994433</v>
+        <v>0.007421150278293136</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0009778369354664918</v>
+        <v>-0.01362093389004354</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5481,7 +5476,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5490,13 +5485,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.08430232558139535</v>
+        <v>0.008720930232558139</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.003874027124015481</v>
+        <v>-0.01232115393577853</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5524,7 +5519,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5533,13 +5528,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.07352941176470588</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.01464694094070494</v>
+        <v>-0.01614012338402295</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5567,7 +5562,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5576,13 +5571,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.08088235294117647</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.007293999764234352</v>
+        <v>-0.01368914299186609</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5610,7 +5605,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5619,13 +5614,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.05434782608695652</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E10" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.03382852661845431</v>
+        <v>-0.01017251895094537</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5653,7 +5648,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5662,13 +5657,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.03703703703703703</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E11" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.05113931566837379</v>
+        <v>-0.002523565649818156</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5696,7 +5691,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -5705,13 +5700,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.05714285714285714</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E12" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.03103349556255369</v>
+        <v>0.007529344403091897</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5734,92 +5729,6 @@
       </c>
       <c r="L12" s="1">
         <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="3">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.02935282329364612</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.02293475840570028</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -5831,7 +5740,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5888,7 +5797,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5897,13 +5806,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1302250803858521</v>
+        <v>0.02411575562700964</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F4" s="1">
-        <v>0.04204872768044127</v>
+        <v>0.003073671458672971</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5931,7 +5840,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5940,13 +5849,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1565040650406504</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F5" s="1">
-        <v>0.06832771233523957</v>
+        <v>0.007413200384508854</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5974,7 +5883,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5983,13 +5892,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1698630136986301</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F6" s="1">
-        <v>0.08168666099321931</v>
+        <v>0.006355176105635928</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6017,7 +5926,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -6026,13 +5935,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1660079051383399</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F7" s="1">
-        <v>0.07783155243292911</v>
+        <v>0.01057846919134712</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6060,7 +5969,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -6069,13 +5978,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.125748502994012</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E8" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F8" s="1">
-        <v>0.03757215028860114</v>
+        <v>-0.003078012312049249</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6103,7 +6012,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -6112,13 +6021,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E9" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F9" s="1">
-        <v>0.02293475840570028</v>
+        <v>-0.01310557623182874</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6146,7 +6055,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -6155,13 +6064,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.08235294117647059</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E10" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.005823411528940239</v>
+        <v>-0.009277378285983733</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6184,178 +6093,6 @@
       </c>
       <c r="L10" s="1">
         <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.02663789116694928</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.01500562099809376</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.02366022367315276</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-0.04469809183584561</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -6367,7 +6104,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6433,10 +6170,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6476,13 +6213,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.08345534407027819</v>
+        <v>0.02635431918008785</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.00472100863513264</v>
+        <v>0.005312235011751175</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6510,7 +6247,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -6519,13 +6256,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.09473684210526316</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F6" s="1">
-        <v>0.006560489399852334</v>
+        <v>-0.01051576837886299</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6548,92 +6285,6 @@
       </c>
       <c r="L6" s="1">
         <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.007977493448435333</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.001219830966280394</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6645,7 +6296,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6702,7 +6353,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6711,13 +6362,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08291457286432161</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.00526177984108922</v>
+        <v>-0.01099183291205527</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6745,7 +6396,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6754,13 +6405,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.05732484076433121</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="E5" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.03085151194107962</v>
+        <v>-0.01467265741674432</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6788,7 +6439,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -6797,13 +6448,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.05333333333333334</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E6" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.03484301937207749</v>
+        <v>-0.007708750835003339</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6831,7 +6482,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -6840,13 +6491,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06976744186046512</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08817635270541083</v>
+        <v>0.02104208416833667</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.01840891084494571</v>
+        <v>0.002213729785151698</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6869,49 +6520,6 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="3">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.08817635270541083</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.04817635270541083</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
